--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>783942.0794672454</v>
+        <v>782054.4979508433</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>441595.898664858</v>
+        <v>363515.530863337</v>
       </c>
     </row>
     <row r="8">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>277.9437615581081</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>354.0303458026493</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>25.06545967998143</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.546296656423063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>125.3827560511991</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>66.21477322945429</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>14.82811972447731</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>70.80276983270106</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>88.42622435099841</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>154.7313760359969</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>26.71728140711184</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.5756411391281</v>
       </c>
     </row>
     <row r="11">
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>11.03652190838594</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>233.5133094409417</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002174</v>
+        <v>168.1406355307172</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>8.419332043519809</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>189.9664086064137</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>99.86151158594828</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>106.0897367900133</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>70.43533402631077</v>
+        <v>94.04575861150438</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.541186269484</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>59.04395605284478</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965536</v>
+        <v>93.41221638965526</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801217</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437425</v>
+        <v>90.21779139437415</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897913</v>
+        <v>93.71057173897903</v>
       </c>
       <c r="I31" t="n">
-        <v>55.215988835715</v>
+        <v>55.2159888357149</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752358</v>
+        <v>54.7610957752357</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>89.43508056523083</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>116.8895359293974</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593962</v>
       </c>
       <c r="Y34" t="n">
         <v>150.4527632224541</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2388.358616186807</v>
+        <v>1359.546482223454</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X2" t="n">
-        <v>2388.358616186807</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y2" t="n">
-        <v>2388.358616186807</v>
+        <v>1359.546482223454</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
         <v>505.8730812692495</v>
@@ -4419,13 +4419,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>290.5651556036576</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X4" t="n">
-        <v>62.57560470564027</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>272.8312459770186</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1704.527073573122</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C5" t="n">
-        <v>1335.56455663271</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>1335.56455663271</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>949.7763040344662</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>538.7903992448587</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>120.8265911430456</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>120.8265911430456</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.527073573122</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y5" t="n">
-        <v>1704.527073573122</v>
+        <v>1871.983983358263</v>
       </c>
     </row>
     <row r="6">
@@ -4620,55 +4620,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>656.6110348804735</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C7" t="n">
-        <v>656.6110348804735</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D7" t="n">
-        <v>506.4943954681378</v>
+        <v>363.7239216122612</v>
       </c>
       <c r="E7" t="n">
-        <v>358.5813018857447</v>
+        <v>215.810828029868</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>68.92088053195769</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>68.92088053195769</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>656.6110348804735</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X7" t="n">
-        <v>656.6110348804735</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y7" t="n">
-        <v>656.6110348804735</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1838.661061815299</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>781.6670851553677</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.661061815299</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y8" t="n">
-        <v>1838.661061815299</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="9">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>671.7249121235795</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>443.7353612255621</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>532.5980335608502</v>
       </c>
     </row>
     <row r="11">
@@ -5024,28 +5024,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5063,7 +5063,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5072,13 +5072,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590536</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181233</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>452.5377573864724</v>
+        <v>619.3968890222129</v>
       </c>
       <c r="M12" t="n">
-        <v>772.8730769161742</v>
+        <v>1387.765035414674</v>
       </c>
       <c r="N12" t="n">
-        <v>1559.410052240715</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.7814158330673</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="C13" t="n">
-        <v>506.7814158330673</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D13" t="n">
         <v>356.6647764207315</v>
@@ -5194,7 +5194,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1487.76826863024</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1198.639629843798</v>
+        <v>839.3388155246357</v>
       </c>
       <c r="V13" t="n">
-        <v>1198.639629843798</v>
+        <v>584.6543273187489</v>
       </c>
       <c r="W13" t="n">
-        <v>909.2224598068372</v>
+        <v>584.6543273187489</v>
       </c>
       <c r="X13" t="n">
-        <v>909.2224598068372</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="Y13" t="n">
-        <v>688.429880663307</v>
+        <v>356.6647764207315</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5297,31 +5297,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5361,19 +5361,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>1067.429715884973</v>
       </c>
       <c r="M15" t="n">
-        <v>1608.660951743751</v>
+        <v>1387.765035414674</v>
       </c>
       <c r="N15" t="n">
-        <v>2305.425532778847</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O15" t="n">
-        <v>2554.178946862809</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5455,31 +5455,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1329.077244769299</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1329.077244769299</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1329.077244769299</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>1074.392756563412</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>784.9755865264517</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>784.9755865264517</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5540,25 +5540,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171745</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M18" t="n">
-        <v>1149.698165809328</v>
+        <v>1089.288466700114</v>
       </c>
       <c r="N18" t="n">
-        <v>1954.109744073479</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P18" t="n">
         <v>2623.573505376138</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>563.1598612984388</v>
+        <v>542.136771952925</v>
       </c>
       <c r="C19" t="n">
-        <v>394.223678370532</v>
+        <v>542.136771952925</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
         <v>244.1070389581962</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1490.411894756367</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1490.411894756367</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1266.626479545873</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1266.626479545873</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1011.941991339986</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>1011.941991339986</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X19" t="n">
-        <v>783.9524404419691</v>
+        <v>762.9293510964551</v>
       </c>
       <c r="Y19" t="n">
-        <v>563.1598612984388</v>
+        <v>542.136771952925</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,7 +5753,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>417.5524109899876</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N21" t="n">
-        <v>1221.963989254138</v>
+        <v>1953.181607381369</v>
       </c>
       <c r="O21" t="n">
-        <v>1891.427750556798</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>514.9365816937661</v>
+        <v>731.6365520183392</v>
       </c>
       <c r="C22" t="n">
-        <v>346.0003987658591</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
         <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609664</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W22" t="n">
-        <v>696.5850465240059</v>
+        <v>913.2850168485789</v>
       </c>
       <c r="X22" t="n">
-        <v>696.5850465240059</v>
+        <v>913.2850168485789</v>
       </c>
       <c r="Y22" t="n">
-        <v>696.5850465240059</v>
+        <v>913.2850168485789</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6008,28 +6008,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>599.3997404112772</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>829.3628462796264</v>
       </c>
       <c r="M24" t="n">
-        <v>417.5524109899876</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N24" t="n">
-        <v>1221.963989254138</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O24" t="n">
-        <v>1891.427750556798</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>825.3747459653032</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>825.3747459653032</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529674</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705743</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705743</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765189</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V25" t="n">
-        <v>786.0822064765189</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W25" t="n">
-        <v>786.0822064765189</v>
+        <v>920.3704617344998</v>
       </c>
       <c r="X25" t="n">
-        <v>558.0926555785015</v>
+        <v>920.3704617344998</v>
       </c>
       <c r="Y25" t="n">
-        <v>337.3000764349714</v>
+        <v>920.3704617344998</v>
       </c>
     </row>
     <row r="26">
@@ -6224,7 +6224,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514082</v>
@@ -6306,22 +6306,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>430.4149073808979</v>
+        <v>599.3997404112772</v>
       </c>
       <c r="L27" t="n">
-        <v>660.378013249247</v>
+        <v>829.3628462796264</v>
       </c>
       <c r="M27" t="n">
-        <v>980.7133327789488</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N27" t="n">
-        <v>1785.124911043099</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O27" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>804.0893717830344</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="C28" t="n">
-        <v>804.0893717830344</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D28" t="n">
-        <v>653.9727323706986</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E28" t="n">
-        <v>506.0596387883055</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471189</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1406.450425841252</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1206.530415756804</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1206.530415756804</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1206.530415756804</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V28" t="n">
-        <v>1206.530415756804</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W28" t="n">
-        <v>1206.530415756804</v>
+        <v>920.3704617344994</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.530415756804</v>
+        <v>920.3704617344994</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.7378366132741</v>
+        <v>860.7301020851612</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6543,22 +6543,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>829.3628462796264</v>
       </c>
       <c r="M30" t="n">
-        <v>334.2881267578673</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215258</v>
+        <v>658.7225911205026</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749896</v>
+        <v>545.5472734739665</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440245</v>
+        <v>451.1914993430016</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430021</v>
+        <v>451.1914993430016</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264623</v>
+        <v>360.062417126462</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569676</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962051</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1646.314214878788</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1412.946441373717</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1214.022818449201</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1214.022818449201</v>
+        <v>902.6804289818941</v>
       </c>
       <c r="X31" t="n">
-        <v>1041.794132832554</v>
+        <v>902.6804289818941</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703947</v>
+        <v>784.6101906693715</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
         <v>904.3190116155888</v>
@@ -6695,16 +6695,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6716,31 +6716,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M33" t="n">
-        <v>865.5852378527472</v>
+        <v>2056.69377860651</v>
       </c>
       <c r="N33" t="n">
-        <v>1669.996816116898</v>
+        <v>2401.214434244128</v>
       </c>
       <c r="O33" t="n">
-        <v>2339.460577419557</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -6944,40 +6944,40 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M36" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.69377860651</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,19 +7090,19 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,22 +7163,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7196,28 +7196,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M39" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.69377860651</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504509</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7397,46 +7397,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605672</v>
+        <v>2056.69377860651</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7524,7 +7524,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7594,10 +7594,10 @@
         <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="44">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.288612901031</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9258,13 +9258,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9498,10 +9498,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9969,13 +9969,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10206,13 +10206,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,10 +10440,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>367.20136680001</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298484</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>210.5110391500033</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>52.72404295763565</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338582</v>
+        <v>29.780174452886</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>101.545020360273</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>35.74324678262349</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>48.75396143226408</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>180.4332615465777</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>109.3966461556265</v>
+        <v>85.78622157043291</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.4231661343088</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>159.54069729925</v>
       </c>
     </row>
     <row r="29">
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801207</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>76.90922386460142</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>46.4918607941403</v>
       </c>
     </row>
     <row r="32">
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1016675.555318044</v>
+        <v>1016675.555318043</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1016675.555318044</v>
+        <v>1016675.555318043</v>
       </c>
     </row>
     <row r="8">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>369468.7964389274</v>
+      </c>
+      <c r="C2" t="n">
         <v>369468.7964389272</v>
-      </c>
-      <c r="C2" t="n">
-        <v>369468.7964389274</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389274</v>
@@ -26335,25 +26335,25 @@
         <v>351926.1537639378</v>
       </c>
       <c r="J2" t="n">
-        <v>351926.1537639379</v>
+        <v>351926.1537639378</v>
       </c>
       <c r="K2" t="n">
-        <v>366139.9236107426</v>
+        <v>366139.9236107425</v>
       </c>
       <c r="L2" t="n">
+        <v>369468.7964389283</v>
+      </c>
+      <c r="M2" t="n">
+        <v>369468.7964389283</v>
+      </c>
+      <c r="N2" t="n">
+        <v>369468.7964389283</v>
+      </c>
+      <c r="O2" t="n">
+        <v>369468.7964389283</v>
+      </c>
+      <c r="P2" t="n">
         <v>369468.7964389281</v>
-      </c>
-      <c r="M2" t="n">
-        <v>369468.7964389282</v>
-      </c>
-      <c r="N2" t="n">
-        <v>369468.7964389281</v>
-      </c>
-      <c r="O2" t="n">
-        <v>369468.7964389282</v>
-      </c>
-      <c r="P2" t="n">
-        <v>369468.7964389282</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028456</v>
+        <v>44162.6053028457</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086695</v>
+        <v>10342.90680086671</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284586</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758286</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758411</v>
+      </c>
+      <c r="G4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758875</v>
-      </c>
       <c r="H4" t="n">
-        <v>787.7936905758785</v>
+        <v>787.7936905758811</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758822</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477238</v>
+        <v>18952.41620477242</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189641</v>
       </c>
       <c r="M4" t="n">
+        <v>23206.58093189641</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23206.5809318964</v>
+      </c>
+      <c r="O4" t="n">
         <v>23206.58093189636</v>
       </c>
-      <c r="N4" t="n">
-        <v>23206.58093189634</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189634</v>
-      </c>
       <c r="P4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26488,25 +26488,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-442417.3000196457</v>
+        <v>-442417.3000196456</v>
       </c>
       <c r="C6" t="n">
-        <v>147550.5791948988</v>
+        <v>147550.5791948987</v>
       </c>
       <c r="D6" t="n">
         <v>147550.5791948988</v>
       </c>
       <c r="E6" t="n">
-        <v>-266009.0023522508</v>
+        <v>-266106.4614782229</v>
       </c>
       <c r="F6" t="n">
-        <v>259151.0341246453</v>
+        <v>259053.5749986731</v>
       </c>
       <c r="G6" t="n">
-        <v>259151.0341246454</v>
+        <v>259053.5749986732</v>
       </c>
       <c r="H6" t="n">
-        <v>259151.0341246454</v>
+        <v>259053.5749986732</v>
       </c>
       <c r="I6" t="n">
-        <v>259151.0341246453</v>
+        <v>259053.5749986732</v>
       </c>
       <c r="J6" t="n">
-        <v>82727.8149320525</v>
+        <v>82630.35580608022</v>
       </c>
       <c r="K6" t="n">
-        <v>206396.6935729019</v>
+        <v>206378.1998349672</v>
       </c>
       <c r="L6" t="n">
-        <v>238204.2028861395</v>
+        <v>238204.2028861398</v>
       </c>
       <c r="M6" t="n">
-        <v>113746.0944531692</v>
+        <v>113746.0944531694</v>
       </c>
       <c r="N6" t="n">
-        <v>248547.1096870064</v>
+        <v>248547.1096870066</v>
       </c>
       <c r="O6" t="n">
         <v>248547.1096870065</v>
       </c>
       <c r="P6" t="n">
-        <v>204384.5043841608</v>
+        <v>204384.5043841604</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964068</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26756,7 +26756,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,16 +26765,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108368</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>87.32913021289943</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>32.20759285340426</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>154.7665205019559</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.0383566956717</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>257.3510856122815</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>85.71654301540696</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>141.3427691173178</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>215.7202285038899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>276.8466674200091</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>252.1446697057145</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>259.8057169294792</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.00901221296667</v>
       </c>
     </row>
     <row r="11">
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="C31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="D31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="E31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="F31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="G31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="H31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="I31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="J31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="K31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="L31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="M31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="N31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="O31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="P31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="R31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="S31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="T31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="U31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="V31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="W31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="X31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.203256628557</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,10 +31118,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
@@ -31139,7 +31139,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31385,19 +31385,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.29709682323551</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31616,7 +31616,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31844,22 +31844,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>168.544577409839</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>446.4811309968915</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -32081,13 +32081,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>164.6848965247098</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>355.8019448459369</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32233,7 +32233,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32318,25 +32318,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>119.4431162246989</v>
+        <v>319.6115048322625</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32473,7 +32473,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
         <v>526.796267130444</v>
@@ -32549,31 +32549,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>241.4090972701572</v>
       </c>
       <c r="P21" t="n">
-        <v>256.9624847376522</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,10 +32786,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>212.6301886270622</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -32798,25 +32798,25 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>256.9624847376522</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,7 +33026,7 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>41.93843809132554</v>
+        <v>212.6301886270622</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -33038,16 +33038,16 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33266,7 +33266,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>380.6314029223778</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -33278,13 +33278,13 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
@@ -33412,46 +33412,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,31 +33491,31 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>102.4943942860912</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -33524,10 +33524,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,43 +33573,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N34" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,46 +33649,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130445</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,43 +33728,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555654</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,43 +33810,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N37" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,46 +33886,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,43 +33965,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555654</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,43 +34047,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N40" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,46 +34123,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,43 +34202,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555654</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,43 +34284,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N43" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>400.8305429334239</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>794.4817932571117</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>396.9708620482947</v>
       </c>
       <c r="M15" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>703.8026071061571</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>443.0141460526805</v>
+        <v>643.1825346602441</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>492.6751721024423</v>
       </c>
       <c r="P21" t="n">
-        <v>441.4508459632592</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>339.2539866652818</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>441.4508459632592</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>168.5622361295451</v>
+        <v>339.2539866652818</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36686,13 +36686,13 @@
         <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>612.9173684459628</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
         <v>812.5369477415663</v>
@@ -36926,10 +36926,10 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412252</v>
+        <v>67.71102679412262</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043175</v>
+        <v>94.42895660043185</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>224.6051223555655</v>
       </c>
       <c r="P33" t="n">
-        <v>286.9827555116981</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37233,7 +37233,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109082</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197792</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157856</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,7 +37470,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197792</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157856</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,13 +37704,13 @@
         <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M42" t="n">
-        <v>228.7283062629105</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157856</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37944,10 +37944,10 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
